--- a/bin/readExcel/ls1.xlsx
+++ b/bin/readExcel/ls1.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15135" windowHeight="5910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -402,7 +403,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>0.10100000000000001</v>
       </c>
     </row>
   </sheetData>
